--- a/Circuit/Bill Of Materials/Bestellijst.xlsx
+++ b/Circuit/Bill Of Materials/Bestellijst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raufp\Desktop\School\ProjectEmbedded\Workshop-IOT-RPI-2022-23\Circuit\Bill Of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121502D2-8CA5-4B03-853F-1D5DBE4DBABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB490DFC-493B-4D8A-9835-967E7EE1792E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{586D246B-09C9-41AC-BF81-1593AEFBAA71}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>DHT-11</t>
   </si>
@@ -47,15 +47,6 @@
     <t>LDR</t>
   </si>
   <si>
-    <t>https://www.gotron.be/ldr-photoresistor-100mw-50-160kohm.html</t>
-  </si>
-  <si>
-    <t>https://www.gotron.be/8-bit-adc-converter-with-serial-control.html?gclid=CjwKCAjw79iaBhAJEiwAPYwoCLWCTqcdT3dClwdzuin4MIdrPvn4DQg3hyETrE1SUpddLzwZSJvRzRoCZ3gQAvD_BwE</t>
-  </si>
-  <si>
-    <t>Hebben we</t>
-  </si>
-  <si>
     <t>DYP-ME003</t>
   </si>
   <si>
@@ -68,9 +59,6 @@
     <t>Hoeveelheid</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>Naam</t>
   </si>
   <si>
@@ -101,9 +89,6 @@
     <t>2n2222a</t>
   </si>
   <si>
-    <t>https://www.gotron.be/2n2222a-npn-75v-0-8a-to-92.html</t>
-  </si>
-  <si>
     <t>Schroef terminals</t>
   </si>
   <si>
@@ -113,25 +98,22 @@
     <t>910 ohm</t>
   </si>
   <si>
-    <t>Rauf</t>
-  </si>
-  <si>
-    <t>Hebben we?</t>
-  </si>
-  <si>
     <t>RPI header</t>
   </si>
   <si>
     <t>2x20</t>
   </si>
   <si>
-    <t>https://www.gotron.be/stacking-header-for-raspberry-pi-3b-2b-2x20-extra-tall.html</t>
-  </si>
-  <si>
     <t>Flyback diode</t>
   </si>
   <si>
     <t>1n4007g</t>
+  </si>
+  <si>
+    <t>Hebben we al</t>
+  </si>
+  <si>
+    <t>Accelerometer</t>
   </si>
 </sst>
 </file>
@@ -534,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED99C29-B4FE-4D84-B5A0-514B4AA5A6C0}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,21 +530,19 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -571,26 +551,26 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -599,12 +579,12 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
@@ -612,112 +592,104 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{32F0A83D-F601-48D9-ACEC-69B23BFF3B1A}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{464E2D44-A912-493D-BEDA-F7F9B8FE6C0E}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{DA8700EA-9F05-46DC-8C68-61936A8B9A15}"/>
-    <hyperlink ref="D11" r:id="rId4" xr:uid="{808F992D-D19F-446A-91A2-E3DF7B1149FA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>